--- a/llm_audio_testcase/llm_audio_testcase.xlsx
+++ b/llm_audio_testcase/llm_audio_testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liamroy/Documents/Studies/Monash_31194990/PHD/Studies/Study_03/LLM_motion/llm_audio_testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F643B4-1335-FE47-B1A2-C0C439B9975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCAFB16-675A-5644-BB49-882EB1DC9643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27200" yWindow="3960" windowWidth="27200" windowHeight="14860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27200" yWindow="3460" windowWidth="27200" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,44 +895,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -948,12 +915,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,7 +961,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,42 +1072,46 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1557,17 +1528,17 @@
       <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
@@ -1582,68 +1553,68 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="2:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="2:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
@@ -1658,86 +1629,86 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="2:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="22" x14ac:dyDescent="0.3">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="73" t="s">
+      <c r="J11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="63" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1754,10 +1725,10 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="65">
         <v>0.5</v>
       </c>
       <c r="D13" s="3"/>
@@ -1782,13 +1753,13 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="79" t="s">
+      <c r="B15" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="3"/>
@@ -1800,13 +1771,13 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="69" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="3"/>
@@ -1818,13 +1789,13 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="90" t="s">
+      <c r="B17" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="79" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="3"/>
@@ -1836,13 +1807,13 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="73" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="3"/>
@@ -1854,13 +1825,13 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="73" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="3"/>
@@ -1872,13 +1843,13 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="2:11" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="3"/>
@@ -1891,12 +1862,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C1:K1"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1908,7 +1879,7 @@
   <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1975,13 +1946,13 @@
       <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="100" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2003,7 +1974,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="82" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -2020,7 +1991,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="94">
+      <c r="B8" s="83">
         <v>0.5</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -2038,10 +2009,10 @@
     </row>
     <row r="9" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="84" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2055,10 +2026,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="96" t="s">
+      <c r="B11" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="85" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="7">
@@ -2073,7 +2044,7 @@
     </row>
     <row r="12" spans="2:6" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="86" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="16">
@@ -2090,16 +2061,16 @@
       <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="103" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2107,7 +2078,7 @@
       <c r="B14" s="26">
         <v>80</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="88" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="7">
@@ -2121,10 +2092,10 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="89" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="7">
@@ -2138,10 +2109,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="94">
+      <c r="B16" s="83">
         <v>0.5</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="90" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="19">
@@ -2156,10 +2127,10 @@
     </row>
     <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="91" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2173,10 +2144,10 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="B19" s="119" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="103" t="s">
+      <c r="B19" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="92" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="7">
@@ -2191,7 +2162,7 @@
     </row>
     <row r="20" spans="2:6" ht="23" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="93" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="16">
@@ -2208,16 +2179,16 @@
       <c r="B21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="116" t="s">
+      <c r="E21" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="106" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2225,7 +2196,7 @@
       <c r="B22" s="26">
         <v>80</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="95" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="7">
@@ -2239,10 +2210,10 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="96" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="7">
@@ -2256,10 +2227,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="94">
+      <c r="B24" s="83">
         <v>0.5</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="97" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="19">
@@ -2274,12 +2245,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D4:F4">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2297,7 +2268,7 @@
   <dimension ref="B1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="H1:L7"/>
+      <selection activeCell="XEK9" sqref="XEK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3857,7 +3828,7 @@
   <dimension ref="B1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L7"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4185,6 +4156,8 @@
       <c r="I11" s="32">
         <v>4</v>
       </c>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -5211,6 +5184,7 @@
       <c r="D71" t="s">
         <v>6</v>
       </c>
+      <c r="E71" s="120"/>
       <c r="F71" t="s">
         <v>7</v>
       </c>
@@ -5401,7 +5375,7 @@
   <dimension ref="B1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L7"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
